--- a/comparison/networkx_times.xlsx
+++ b/comparison/networkx_times.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\porat\Desktop\git_repos\assignment_3_oop\comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E2D74B-AFD5-4C9C-A5C2-12F12D32AA68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B751A1-C0A0-486E-9D3B-C2BEB726155D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -25,39 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Graphs</t>
   </si>
   <si>
     <t>components</t>
-  </si>
-  <si>
-    <t>component</t>
-  </si>
-  <si>
-    <t>0 - 9</t>
-  </si>
-  <si>
-    <t>0-99</t>
-  </si>
-  <si>
-    <t>0-999</t>
-  </si>
-  <si>
-    <t>0 -9999</t>
-  </si>
-  <si>
-    <t>0-19999</t>
-  </si>
-  <si>
-    <t>0-29999</t>
-  </si>
-  <si>
-    <t>0-9</t>
-  </si>
-  <si>
-    <t>0-9999</t>
   </si>
   <si>
     <t>G_10_80_0</t>
@@ -432,278 +405,221 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C6">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="C8">
+        <v>0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="C10">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>1.38</v>
+      </c>
+      <c r="C12">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>7.8E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.23100000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
-        <v>1.2E-2</v>
-      </c>
-      <c r="G2">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B20">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="C20">
+        <v>0.58399999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G4">
-        <v>0.02</v>
-      </c>
-      <c r="I4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B22">
+        <v>0.874</v>
+      </c>
+      <c r="C22">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="C6">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="G6">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B24">
+        <v>1.87</v>
+      </c>
+      <c r="C24">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>14</v>
       </c>
-      <c r="C8">
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="G8">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="I8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B26">
+        <v>0.01</v>
+      </c>
+      <c r="C26">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>15</v>
       </c>
-      <c r="C10">
-        <v>0.81100000000000005</v>
-      </c>
-      <c r="G10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B28">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="C12">
-        <v>1.38</v>
-      </c>
-      <c r="G12">
-        <v>1.67</v>
-      </c>
-      <c r="I12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B30">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="C30">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>17</v>
       </c>
-      <c r="C14">
-        <v>1.2E-2</v>
-      </c>
-      <c r="G14">
-        <v>0.15</v>
-      </c>
-      <c r="I14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B32">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="C32">
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>18</v>
       </c>
-      <c r="C16">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="G16">
-        <v>0.23</v>
-      </c>
-      <c r="I16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B34">
+        <v>1.34</v>
+      </c>
+      <c r="C34">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>19</v>
       </c>
-      <c r="C18">
-        <v>7.8E-2</v>
-      </c>
-      <c r="G18">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="I18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="G20">
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="I20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22">
-        <v>0.874</v>
-      </c>
-      <c r="G22">
-        <v>1.18</v>
-      </c>
-      <c r="I22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24">
-        <v>1.87</v>
-      </c>
-      <c r="G24">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="I24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26">
-        <v>0.01</v>
-      </c>
-      <c r="G26">
-        <v>0.1</v>
-      </c>
-      <c r="I26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="G28">
-        <v>0.2</v>
-      </c>
-      <c r="I28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="G30">
-        <v>0.68</v>
-      </c>
-      <c r="I30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="G32">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="I32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34">
-        <v>1.34</v>
-      </c>
-      <c r="G34">
-        <v>1.89</v>
-      </c>
-      <c r="I34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>28</v>
+      <c r="B36">
+        <v>1.61</v>
       </c>
       <c r="C36">
-        <v>1.61</v>
-      </c>
-      <c r="G36">
         <v>2.2999999999999998</v>
-      </c>
-      <c r="I36" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
